--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -293,6 +293,126 @@
   <si>
     <t>Sim</t>
   </si>
+  <si>
+    <t>Lỗi phần mềm</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW làm mới thiết bị nhập lại kho</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>Le4.1.00.AOO02.210621</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Trả kho</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>LE.1.00.---03.181025</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>SE.4.00.---02.190820</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Test lai thiết bị</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14848</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp, nạp lại FW</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001503250937, sim lỗi</t>
+  </si>
+  <si>
+    <t>ID cũ:862118020970817</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,6 +841,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,45 +905,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,43 +1247,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1199,58 +1328,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1275,23 +1404,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,43 +3577,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3529,58 +3658,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3605,23 +3734,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5724,43 +5853,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5805,58 +5934,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5881,23 +6010,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,16 +6048,32 @@
         <v>70</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>89</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="K6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -6343,7 +6488,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6812,7 +6957,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6876,7 +7021,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8002,43 +8147,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8083,58 +8228,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8159,23 +8304,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10263,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10296,43 +10441,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10377,58 +10522,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10453,23 +10598,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10479,28 +10624,50 @@
       <c r="B6" s="61">
         <v>44788</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44789</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="70">
         <v>861881054165981</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="H6" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -10518,28 +10685,50 @@
       <c r="B7" s="61">
         <v>44788</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61">
+        <v>44789</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="70">
         <v>862205051170332</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="H7" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
       <c r="U7" s="79"/>
@@ -10555,28 +10744,50 @@
       <c r="B8" s="61">
         <v>44788</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="61">
+        <v>44789</v>
+      </c>
       <c r="D8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="70">
         <v>861881054163804</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
       <c r="U8" s="79"/>
@@ -10592,28 +10803,50 @@
       <c r="B9" s="61">
         <v>44788</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="61">
+        <v>44789</v>
+      </c>
       <c r="D9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="70">
         <v>862205051216770</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="H9" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="79"/>
@@ -10629,28 +10862,50 @@
       <c r="B10" s="61">
         <v>44788</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="61">
+        <v>44789</v>
+      </c>
       <c r="D10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="70">
         <v>862205051163212</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="H10" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="79"/>
@@ -10666,28 +10921,50 @@
       <c r="B11" s="61">
         <v>44788</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="61">
+        <v>44789</v>
+      </c>
       <c r="D11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="70">
         <v>862205051175828</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="H11" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="79"/>
@@ -10703,28 +10980,50 @@
       <c r="B12" s="61">
         <v>44788</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="61">
+        <v>44789</v>
+      </c>
       <c r="D12" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="70">
         <v>862205051172734</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="H12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="78" t="s">
@@ -10963,7 +11262,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11432,7 +11731,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11496,7 +11795,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12589,8 +12888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12622,43 +12921,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12703,58 +13002,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12779,23 +13078,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12806,28 +13105,44 @@
         <v>44788</v>
       </c>
       <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="75">
         <v>868183034637319</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>92</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="K6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="76"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
         <v>18</v>
@@ -12844,29 +13159,47 @@
       <c r="B7" s="61">
         <v>44788</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="59" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="75">
         <v>868183034658083</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="76"/>
       <c r="T7" s="69"/>
       <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
@@ -12881,29 +13214,41 @@
       <c r="B8" s="61">
         <v>44788</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="75">
         <v>868183035934715</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="76"/>
       <c r="T8" s="69"/>
       <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
@@ -12918,29 +13263,45 @@
       <c r="B9" s="61">
         <v>44788</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="59" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="75">
         <v>868183034545041</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="76"/>
       <c r="T9" s="69"/>
       <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
@@ -12955,31 +13316,49 @@
       <c r="B10" s="61">
         <v>44788</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="75">
         <v>867717030489638</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="76"/>
       <c r="T10" s="69"/>
       <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
@@ -12991,24 +13370,24 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="69"/>
       <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
@@ -13275,7 +13654,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13307,7 +13686,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13339,7 +13718,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13552,7 +13931,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -13616,7 +13995,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13648,7 +14027,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -13744,7 +14123,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13808,7 +14187,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -13926,7 +14305,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -14901,8 +15280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14934,43 +15313,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15015,58 +15394,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15091,23 +15470,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15124,21 +15503,39 @@
       <c r="E6" s="60">
         <v>861694030672362</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G6" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="K6" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -15168,16 +15565,30 @@
         <v>63</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
       <c r="U7" s="79"/>
@@ -15204,17 +15615,33 @@
       <c r="G8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>110</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
       <c r="U8" s="79"/>
@@ -15242,16 +15669,32 @@
         <v>63</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
       <c r="U9" s="79"/>
@@ -15279,16 +15722,32 @@
         <v>63</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="79"/>
@@ -15311,21 +15770,39 @@
       <c r="E11" s="60">
         <v>861694031759614</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G11" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="79"/>
@@ -15353,16 +15830,32 @@
         <v>63</v>
       </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="78" t="s">
@@ -15392,16 +15885,32 @@
         <v>63</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
       <c r="U13" s="79"/>
@@ -15609,7 +16118,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -15641,7 +16150,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -15950,7 +16459,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -16078,7 +16587,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -16110,7 +16619,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -16142,7 +16651,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17235,8 +17744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17268,43 +17777,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17349,58 +17858,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17425,23 +17934,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17463,16 +17972,30 @@
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>114</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="K6" s="65" t="s">
+        <v>113</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>115</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -17497,21 +18020,41 @@
       <c r="E7" s="60">
         <v>865904027285292</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
       <c r="U7" s="79"/>
@@ -17642,24 +18185,38 @@
       <c r="D11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="71">
         <v>862118020955453</v>
       </c>
-      <c r="F11" s="87"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
       <c r="U11" s="79"/>
@@ -17679,24 +18236,42 @@
       <c r="D12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="73">
         <v>865904027284253</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
       <c r="U12" s="78" t="s">
@@ -17943,7 +18518,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18007,7 +18582,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18284,7 +18859,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18316,7 +18891,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -18444,7 +19019,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -18476,7 +19051,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19569,8 +20144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19602,43 +20177,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19683,58 +20258,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19759,23 +20334,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -412,6 +412,39 @@
   </si>
   <si>
     <t>ID cũ:862118020970817</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ, sim lỗi</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00036.250815</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại module GSP, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114/14747</t>
+  </si>
+  <si>
+    <t>Dây nguồn chập trờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại dây nguồn</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114/14040</t>
   </si>
 </sst>
 </file>
@@ -863,30 +896,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,6 +913,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,7 +1248,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1247,43 +1280,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1328,58 +1361,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1404,23 +1437,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,7 +1489,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1497,7 +1530,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1569,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1608,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1614,7 +1647,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1686,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +1715,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1713,7 +1746,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1775,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1804,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +1833,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3516,6 +3549,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3527,13 +3567,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3577,43 +3610,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3658,58 +3691,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3734,23 +3767,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,7 +3815,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3813,7 +3846,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +3875,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +3904,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3900,7 +3933,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3929,7 +3962,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +3991,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3989,7 +4022,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4018,7 +4051,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4080,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4076,7 +4109,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5792,13 +5825,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5810,6 +5836,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5853,43 +5886,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5934,58 +5967,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6010,23 +6043,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6076,7 +6109,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6107,7 +6140,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6136,7 +6169,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6165,7 +6198,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6194,7 +6227,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6223,7 +6256,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6252,7 +6285,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6283,7 +6316,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6312,7 +6345,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6341,7 +6374,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6370,7 +6403,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8086,13 +8119,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8104,6 +8130,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8114,8 +8147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8147,43 +8180,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8228,58 +8261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8304,23 +8337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,19 +8375,35 @@
         <v>70</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>125</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>128</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8381,9 +8430,13 @@
         <v>70</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="63" t="s">
+        <v>130</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="65" t="s">
+        <v>129</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -8393,7 +8446,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8430,7 +8483,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8459,7 +8512,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8488,7 +8541,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8517,7 +8570,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8546,7 +8599,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8577,7 +8630,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8606,7 +8659,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8635,7 +8688,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8664,7 +8717,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8814,7 +8867,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9059,7 +9112,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9315,7 +9368,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10380,13 +10433,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10398,6 +10444,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10441,43 +10494,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10522,58 +10575,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10598,23 +10651,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10670,7 +10723,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10731,7 +10784,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10790,7 +10843,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10849,7 +10902,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10908,7 +10961,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10967,7 +11020,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11026,7 +11079,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11057,7 +11110,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11086,7 +11139,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11115,7 +11168,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11144,7 +11197,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12860,13 +12913,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12878,6 +12924,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12921,43 +12974,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13002,58 +13055,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13078,23 +13131,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,7 +13197,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13201,7 +13254,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13250,7 +13303,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13303,7 +13356,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13360,7 +13413,7 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13389,7 +13442,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13418,7 +13471,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13449,7 +13502,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13478,7 +13531,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13507,7 +13560,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13536,7 +13589,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15252,13 +15305,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15270,6 +15316,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15313,43 +15366,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15394,58 +15447,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15470,23 +15523,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15538,7 +15591,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15591,7 +15644,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15644,7 +15697,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15697,7 +15750,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15750,7 +15803,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15805,7 +15858,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15858,7 +15911,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15913,7 +15966,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15942,7 +15995,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15971,7 +16024,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16000,7 +16053,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17716,13 +17769,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17734,6 +17780,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17744,8 +17797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17777,43 +17830,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17858,58 +17911,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17934,23 +17987,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17998,7 +18051,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -18057,7 +18110,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -18082,19 +18135,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="63" t="s">
+        <v>92</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -18112,26 +18181,44 @@
         <v>64</v>
       </c>
       <c r="E9" s="60">
-        <v>864161020959719</v>
+        <v>866762026939981</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -18155,20 +18242,36 @@
       <c r="G10" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>92</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="38" t="s">
+        <v>113</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -18219,7 +18322,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18274,7 +18377,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18294,26 +18397,48 @@
         <v>64</v>
       </c>
       <c r="E13" s="60">
-        <v>866762025197243</v>
-      </c>
-      <c r="F13" s="59"/>
+        <v>866762029052790</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="H13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18342,7 +18467,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18371,7 +18496,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18400,7 +18525,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18518,7 +18643,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18582,7 +18707,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18763,7 +18888,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -18987,7 +19112,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -19019,7 +19144,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -19051,7 +19176,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -20116,13 +20241,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20134,6 +20252,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20177,43 +20302,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20258,58 +20383,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20334,23 +20459,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20376,7 +20501,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20407,7 +20532,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20436,7 +20561,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20465,7 +20590,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20494,7 +20619,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20523,7 +20648,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20552,7 +20677,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20583,7 +20708,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20612,7 +20737,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20641,7 +20766,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20670,7 +20795,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21901,6 +22026,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21912,13 +22044,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -445,6 +445,36 @@
   </si>
   <si>
     <t>125.212.203.114/14040</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200401.CAR01A10</t>
+  </si>
+  <si>
+    <t>ID: 0032001FFB</t>
+  </si>
+  <si>
+    <t>192.168.1.0,5556</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R21111601</t>
+  </si>
+  <si>
+    <t>Sai máy chủ, sai múi giờ</t>
+  </si>
+  <si>
+    <t>Cấu hình lại máy chủ, múi giờ</t>
+  </si>
+  <si>
+    <t>Dây kết nối, thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Chập nguồn</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>Trạng thái giao tiếp module không tồn tại</t>
   </si>
 </sst>
 </file>
@@ -896,6 +926,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,30 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1280,43 +1310,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1361,58 +1391,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1437,23 +1467,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,18 +1508,28 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>139</v>
+      </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1530,7 +1570,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1558,18 +1598,28 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="J8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1597,18 +1647,28 @@
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="38"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1629,25 +1689,35 @@
         <v>74</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="G10" s="59" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1673,20 +1743,36 @@
       <c r="G11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="H11" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>136</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1715,7 +1801,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1746,7 +1832,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1775,7 +1861,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1804,7 +1890,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1919,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1951,7 +2037,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1983,7 +2069,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2164,7 +2250,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2228,7 +2314,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2324,7 +2410,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2484,7 +2570,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3549,13 +3635,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3567,6 +3646,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3578,7 +3664,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3610,43 +3696,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3691,58 +3777,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3767,23 +3853,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3815,7 +3901,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3846,7 +3932,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3875,7 +3961,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3904,7 +3990,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3933,7 +4019,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3962,7 +4048,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3991,7 +4077,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4022,7 +4108,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +4137,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4080,7 +4166,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4109,7 +4195,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5825,6 +5911,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5836,13 +5929,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5853,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5886,43 +5972,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5967,58 +6053,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6043,23 +6129,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6069,7 +6155,9 @@
       <c r="B6" s="61">
         <v>44788</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44795</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>78</v>
       </c>
@@ -6109,7 +6197,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6140,7 +6228,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6169,7 +6257,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6198,7 +6286,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6227,7 +6315,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6256,7 +6344,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6285,7 +6373,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6316,7 +6404,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6345,7 +6433,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6374,7 +6462,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6403,7 +6491,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8119,6 +8207,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8130,13 +8225,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8147,7 +8235,2355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="60">
+        <v>860906041208361</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="69"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="60">
+        <v>862549040693148</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="69"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="60">
+        <v>862549040693023</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="69"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="69"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="69"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="69"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="69"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="69"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="69"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="69"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="69"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8180,43 +10616,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8261,58 +10697,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8337,23 +10773,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8363,30 +10799,36 @@
       <c r="B6" s="61">
         <v>44788</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44789</v>
+      </c>
       <c r="D6" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="60">
-        <v>860906041208361</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="70">
+        <v>861881054165981</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="I6" s="63" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="66"/>
+        <v>85</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>84</v>
+      </c>
       <c r="M6" s="66" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -8396,14 +10838,14 @@
         <v>83</v>
       </c>
       <c r="Q6" s="64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8418,35 +10860,53 @@
       <c r="B7" s="61">
         <v>44788</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61">
+        <v>44789</v>
+      </c>
       <c r="D7" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="60">
-        <v>862549040693148</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="70">
+        <v>862205051170332</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="I7" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+        <v>85</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8459,31 +10919,53 @@
       <c r="B8" s="61">
         <v>44788</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="61">
+        <v>44789</v>
+      </c>
       <c r="D8" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="60">
-        <v>862549040693023</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="70">
+        <v>861881054163804</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8493,26 +10975,56 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44789</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="70">
+        <v>862205051216770</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8522,26 +11034,56 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="B10" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44789</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="70">
+        <v>862205051163212</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8551,26 +11093,56 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="B11" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44789</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="70">
+        <v>862205051175828</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8580,26 +11152,56 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="B12" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44789</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="70">
+        <v>862205051172734</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8630,7 +11232,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8659,7 +11261,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8688,7 +11290,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8717,7 +11319,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8835,7 +11437,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8867,7 +11469,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9112,7 +11714,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9304,7 +11906,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9368,7 +11970,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10433,6 +13035,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10444,25 +13053,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10494,43 +13096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10575,58 +13177,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10651,23 +13253,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,35 +13280,31 @@
         <v>44788</v>
       </c>
       <c r="C6" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="70">
-        <v>861881054165981</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>87</v>
-      </c>
+        <v>44795</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="75">
+        <v>868183034637319</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>80</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -10721,9 +13319,9 @@
       <c r="R6" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10739,37 +13337,35 @@
         <v>44788</v>
       </c>
       <c r="C7" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="70">
-        <v>862205051170332</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>87</v>
-      </c>
+        <v>44795</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="75">
+        <v>868183034658083</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K7" s="65" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L7" s="66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
         <v>82</v>
       </c>
@@ -10777,14 +13373,14 @@
         <v>83</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="R7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10798,52 +13394,44 @@
         <v>44788</v>
       </c>
       <c r="C8" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="70">
-        <v>861881054163804</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>86</v>
-      </c>
+        <v>44795</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="75">
+        <v>868183035934715</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>84</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="N8" s="64"/>
       <c r="O8" s="64" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="P8" s="66" t="s">
         <v>83</v>
       </c>
       <c r="Q8" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10857,37 +13445,33 @@
         <v>44788</v>
       </c>
       <c r="C9" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="70">
-        <v>862205051216770</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>87</v>
-      </c>
+        <v>44795</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="75">
+        <v>868183034545041</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="62"/>
       <c r="I9" s="63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>85</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K9" s="64"/>
       <c r="L9" s="66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="N9" s="64"/>
       <c r="O9" s="64" t="s">
         <v>82</v>
       </c>
@@ -10898,11 +13482,11 @@
         <v>19</v>
       </c>
       <c r="R9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10916,37 +13500,37 @@
         <v>44788</v>
       </c>
       <c r="C10" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="70">
-        <v>862205051163212</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="s">
-        <v>70</v>
+        <v>44795</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="75">
+        <v>867717030489638</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="75" t="s">
+        <v>91</v>
       </c>
       <c r="L10" s="66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M10" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N10" s="64"/>
       <c r="O10" s="64" t="s">
         <v>82</v>
       </c>
@@ -10959,9 +13543,9 @@
       <c r="R10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10971,56 +13555,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61">
-        <v>44788</v>
-      </c>
-      <c r="C11" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="70">
-        <v>862205051175828</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="3"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11030,56 +13584,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61">
-        <v>44788</v>
-      </c>
-      <c r="C12" s="61">
-        <v>44789</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="70">
-        <v>862205051172734</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>81</v>
-      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="67" t="s">
-        <v>24</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11110,7 +13634,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11139,7 +13663,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11168,7 +13692,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11197,7 +13721,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11315,7 +13839,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11347,7 +13871,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11379,7 +13903,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -11592,7 +14116,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11656,7 +14180,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11688,7 +14212,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -11784,7 +14308,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11848,7 +14372,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -11966,7 +14490,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -12913,6 +15437,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12924,25 +15455,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12974,43 +15498,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13055,58 +15579,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13131,23 +15655,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13157,27 +15681,31 @@
       <c r="B6" s="61">
         <v>44788</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="75">
-        <v>868183034637319</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62" t="s">
+      <c r="C6" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="60">
+        <v>861694030672362</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="51" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="M6" s="66" t="s">
         <v>38</v>
@@ -13195,9 +15723,9 @@
       <c r="R6" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13212,49 +15740,47 @@
       <c r="B7" s="61">
         <v>44788</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="75">
-        <v>868183034658083</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62" t="s">
+      <c r="C7" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="60">
+        <v>866104024722095</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="76"/>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13267,43 +15793,49 @@
       <c r="B8" s="61">
         <v>44788</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="75">
-        <v>868183035934715</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62" t="s">
+      <c r="C8" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="60">
+        <v>862631039279426</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="66" t="s">
+      <c r="H8" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="76"/>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13316,47 +15848,49 @@
       <c r="B9" s="61">
         <v>44788</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="75">
-        <v>868183034545041</v>
-      </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62" t="s">
+      <c r="C9" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="60">
+        <v>866104022160868</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="76"/>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13369,51 +15903,49 @@
       <c r="B10" s="61">
         <v>44788</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="75">
-        <v>867717030489638</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="C10" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="60">
+        <v>862631034726785</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64" t="s">
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="76"/>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13423,26 +15955,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="76"/>
+      <c r="B11" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="60">
+        <v>861694031759614</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13452,26 +16012,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="60">
+        <v>862631034711308</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13483,26 +16069,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="61">
+        <v>44788</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44795</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="60">
+        <v>866104022261765</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13531,7 +16143,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13560,7 +16172,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13589,7 +16201,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13707,7 +16319,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13739,7 +16351,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13771,7 +16383,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13984,7 +16596,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -14048,7 +16660,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -14080,7 +16692,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -14176,7 +16788,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -14208,7 +16820,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -14240,7 +16852,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14358,7 +16970,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -15305,6 +17917,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15316,25 +17935,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15366,43 +17978,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15447,58 +18059,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15523,23 +18135,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15549,32 +18161,30 @@
       <c r="B6" s="61">
         <v>44788</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44795</v>
+      </c>
       <c r="D6" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="60">
-        <v>861694030672362</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>79</v>
-      </c>
+        <v>865904028275821</v>
+      </c>
+      <c r="F6" s="59"/>
       <c r="G6" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="51" t="s">
-        <v>92</v>
+      <c r="I6" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -15587,11 +18197,11 @@
         <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15606,28 +18216,36 @@
       <c r="B7" s="61">
         <v>44788</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61">
+        <v>44795</v>
+      </c>
       <c r="D7" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="60">
-        <v>866104024722095</v>
-      </c>
-      <c r="F7" s="59"/>
+        <v>865904027285292</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="39"/>
+      <c r="H7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="65" t="s">
+        <v>113</v>
+      </c>
       <c r="M7" s="39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -15637,14 +18255,14 @@
         <v>83</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15657,30 +18275,32 @@
       <c r="B8" s="61">
         <v>44788</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="61">
+        <v>44795</v>
+      </c>
       <c r="D8" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="60">
-        <v>862631039279426</v>
+        <v>865904027260162</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>110</v>
+      <c r="H8" s="37"/>
+      <c r="I8" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>113</v>
+      </c>
       <c r="M8" s="39" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -15693,11 +18313,11 @@
         <v>19</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15710,27 +18330,31 @@
       <c r="B9" s="61">
         <v>44788</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="61">
+        <v>44795</v>
+      </c>
       <c r="D9" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="60">
-        <v>866104022160868</v>
+        <v>866762026939981</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>92</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>38</v>
@@ -15750,7 +18374,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15763,30 +18387,32 @@
       <c r="B10" s="61">
         <v>44788</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="61">
+        <v>44795</v>
+      </c>
       <c r="D10" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="60">
-        <v>862631034726785</v>
+        <v>866762029015565</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
@@ -15796,14 +18422,14 @@
         <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15816,32 +18442,30 @@
       <c r="B11" s="61">
         <v>44788</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="61">
+        <v>44795</v>
+      </c>
       <c r="D11" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="60">
-        <v>861694031759614</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>79</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E11" s="71">
+        <v>862118020955453</v>
+      </c>
+      <c r="F11" s="72"/>
       <c r="G11" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="L11" s="39"/>
       <c r="M11" s="39" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
@@ -15854,11 +18478,11 @@
         <v>19</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15871,30 +18495,34 @@
       <c r="B12" s="61">
         <v>44788</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="61">
+        <v>44795</v>
+      </c>
       <c r="D12" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="60">
-        <v>862631034711308</v>
-      </c>
-      <c r="F12" s="59"/>
+        <v>64</v>
+      </c>
+      <c r="E12" s="73">
+        <v>865904027284253</v>
+      </c>
+      <c r="F12" s="74"/>
       <c r="G12" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>104</v>
+      <c r="H12" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
@@ -15907,11 +18535,11 @@
         <v>19</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15926,30 +18554,38 @@
       <c r="B13" s="61">
         <v>44788</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="61">
+        <v>44795</v>
+      </c>
       <c r="D13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="60">
-        <v>866104022261765</v>
-      </c>
-      <c r="F13" s="59"/>
+        <v>866762029052790</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="63" t="s">
         <v>92</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>113</v>
+      </c>
       <c r="M13" s="39" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
@@ -15959,14 +18595,14 @@
         <v>83</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15995,7 +18631,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16024,7 +18660,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16053,7 +18689,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16203,7 +18839,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -16235,7 +18871,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -16416,7 +19052,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -16512,7 +19148,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -16544,7 +19180,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -16640,7 +19276,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -16672,7 +19308,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -16704,7 +19340,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17769,6 +20405,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17780,2485 +20423,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
-  <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="60">
-        <v>865904028275821</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="69"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="60">
-        <v>865904027285292</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="69"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="60">
-        <v>865904027260162</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="69"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="60">
-        <v>866762026939981</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="69"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="60">
-        <v>866762029015565</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="69"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="71">
-        <v>862118020955453</v>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="69"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="73">
-        <v>865904027284253</v>
-      </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="69"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="60">
-        <v>866762029052790</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="69"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="69"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="69"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="69"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>10</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20302,43 +20466,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20383,58 +20547,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20459,23 +20623,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20501,7 +20665,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20532,7 +20696,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20561,7 +20725,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20590,7 +20754,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20619,7 +20783,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20648,7 +20812,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20677,7 +20841,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20708,7 +20872,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20737,7 +20901,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20766,7 +20930,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20795,7 +20959,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22026,13 +22190,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -22044,6 +22201,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="145">
   <si>
     <t>STT</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>Trạng thái giao tiếp module không tồn tại</t>
+  </si>
+  <si>
+    <t>ID: 003200240D, WP21120135S00682</t>
+  </si>
+  <si>
+    <t>ID: 0032000C34, WP21110052S00346</t>
+  </si>
+  <si>
+    <t>ID: 0032002955, WP21120135S02906</t>
+  </si>
+  <si>
+    <t>ID: 00320011E7, WP21110069S00126</t>
   </si>
 </sst>
 </file>
@@ -926,30 +938,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,6 +955,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1302,7 @@
     <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="37" style="19" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
     <col min="10" max="10" width="53" style="19" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
@@ -1310,43 +1322,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1391,58 +1403,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1467,23 +1479,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1505,9 @@
       <c r="B6" s="61">
         <v>44696</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44795</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>67</v>
       </c>
@@ -1506,7 +1520,9 @@
       <c r="G6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>144</v>
+      </c>
       <c r="I6" s="63"/>
       <c r="J6" s="64" t="s">
         <v>140</v>
@@ -1529,7 +1545,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1570,7 +1586,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1599,9 @@
       <c r="B8" s="61">
         <v>44696</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44795</v>
+      </c>
       <c r="D8" s="59" t="s">
         <v>67</v>
       </c>
@@ -1596,7 +1614,9 @@
       <c r="G8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
         <v>138</v>
@@ -1619,7 +1639,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1652,9 @@
       <c r="B9" s="61">
         <v>44696</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44795</v>
+      </c>
       <c r="D9" s="59" t="s">
         <v>67</v>
       </c>
@@ -1645,7 +1667,9 @@
       <c r="G9" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="62" t="s">
+        <v>142</v>
+      </c>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
         <v>138</v>
@@ -1668,7 +1692,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1705,9 @@
       <c r="B10" s="61">
         <v>44696</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44795</v>
+      </c>
       <c r="D10" s="59" t="s">
         <v>67</v>
       </c>
@@ -1694,7 +1720,9 @@
       <c r="G10" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="I10" s="51"/>
       <c r="J10" s="1" t="s">
         <v>138</v>
@@ -1717,7 +1745,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1730,7 +1758,9 @@
       <c r="B11" s="61">
         <v>44696</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44795</v>
+      </c>
       <c r="D11" s="59" t="s">
         <v>67</v>
       </c>
@@ -1772,7 +1802,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1801,7 +1831,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1832,7 +1862,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1891,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1890,7 +1920,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1919,7 +1949,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3635,6 +3665,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3646,13 +3683,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3696,43 +3726,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3777,58 +3807,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3853,23 +3883,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3931,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3932,7 +3962,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3961,7 +3991,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3990,7 +4020,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4019,7 +4049,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4048,7 +4078,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4077,7 +4107,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4108,7 +4138,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4137,7 +4167,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4166,7 +4196,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4195,7 +4225,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5911,13 +5941,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5929,6 +5952,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5939,7 +5969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5972,43 +6002,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6053,58 +6083,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6129,23 +6159,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,7 +6227,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6228,7 +6258,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6257,7 +6287,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6286,7 +6316,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6315,7 +6345,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6344,7 +6374,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6373,7 +6403,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6404,7 +6434,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6433,7 +6463,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6462,7 +6492,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6491,7 +6521,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8207,13 +8237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8225,6 +8248,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8268,43 +8298,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8349,58 +8379,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8425,23 +8455,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8493,7 +8523,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8550,7 +8580,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8605,7 +8635,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8634,7 +8664,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8663,7 +8693,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8692,7 +8722,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8721,7 +8751,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8752,7 +8782,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8781,7 +8811,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8810,7 +8840,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8839,7 +8869,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10555,13 +10585,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10573,6 +10596,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10616,43 +10646,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10697,58 +10727,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10773,23 +10803,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10845,7 +10875,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10906,7 +10936,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10965,7 +10995,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11024,7 +11054,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11083,7 +11113,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11142,7 +11172,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11201,7 +11231,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11232,7 +11262,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11261,7 +11291,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11290,7 +11320,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11319,7 +11349,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13035,13 +13065,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13053,6 +13076,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13096,43 +13126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13177,58 +13207,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13253,23 +13283,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13321,7 +13351,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13380,7 +13410,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13431,7 +13461,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13486,7 +13516,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13545,7 +13575,7 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13574,7 +13604,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13603,7 +13633,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13634,7 +13664,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13663,7 +13693,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13692,7 +13722,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13721,7 +13751,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15437,13 +15467,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15455,6 +15478,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15498,43 +15528,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15579,58 +15609,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15655,23 +15685,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15725,7 +15755,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15780,7 +15810,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15835,7 +15865,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15890,7 +15920,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15945,7 +15975,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16002,7 +16032,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16057,7 +16087,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16114,7 +16144,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16143,7 +16173,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16172,7 +16202,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16201,7 +16231,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17917,13 +17947,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17935,6 +17958,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17978,43 +18008,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -18059,58 +18089,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -18135,23 +18165,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18201,7 +18231,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -18262,7 +18292,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -18317,7 +18347,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -18374,7 +18404,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -18429,7 +18459,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -18482,7 +18512,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18539,7 +18569,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18602,7 +18632,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18631,7 +18661,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18660,7 +18690,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18689,7 +18719,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20405,13 +20435,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20423,6 +20446,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20466,43 +20496,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20547,58 +20577,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20623,23 +20653,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20665,7 +20695,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20696,7 +20726,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20725,7 +20755,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20754,7 +20784,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20783,7 +20813,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20812,7 +20842,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20841,7 +20871,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20872,7 +20902,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20901,7 +20931,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20930,7 +20960,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20959,7 +20989,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22190,6 +22220,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -22201,13 +22238,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="146">
   <si>
     <t>STT</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>ID: 00320011E7, WP21110069S00126</t>
+  </si>
+  <si>
+    <t>Anh Thông giữ</t>
   </si>
 </sst>
 </file>
@@ -938,6 +941,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,30 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1322,43 +1325,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1403,58 +1406,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1479,23 +1482,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,7 +1548,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1573,7 +1576,9 @@
       <c r="G7" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
@@ -1586,7 +1591,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1697,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1745,7 +1750,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1802,7 +1807,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1862,7 +1867,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1891,7 +1896,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1925,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +1954,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3665,13 +3670,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3683,6 +3681,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3726,43 +3731,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3807,58 +3812,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3883,23 +3888,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,7 +3936,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3962,7 +3967,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4020,7 +4025,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4054,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4078,7 +4083,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4107,7 +4112,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4138,7 +4143,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4167,7 +4172,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4196,7 +4201,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4225,7 +4230,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5941,6 +5946,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5952,13 +5964,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6002,43 +6007,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6083,58 +6088,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6159,23 +6164,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6227,7 +6232,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6258,7 +6263,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6287,7 +6292,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6316,7 +6321,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6345,7 +6350,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6374,7 +6379,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6403,7 +6408,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6434,7 +6439,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6463,7 +6468,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6492,7 +6497,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6521,7 +6526,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8237,6 +8242,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8248,13 +8260,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8298,43 +8303,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8379,58 +8384,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8455,23 +8460,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8523,7 +8528,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8580,7 +8585,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8635,7 +8640,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8664,7 +8669,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8693,7 +8698,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8722,7 +8727,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8751,7 +8756,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8782,7 +8787,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8811,7 +8816,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8840,7 +8845,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8869,7 +8874,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10585,6 +10590,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10596,13 +10608,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10646,43 +10651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10727,58 +10732,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10803,23 +10808,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10875,7 +10880,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10936,7 +10941,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10995,7 +11000,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11054,7 +11059,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11113,7 +11118,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11172,7 +11177,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11231,7 +11236,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11262,7 +11267,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11291,7 +11296,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11320,7 +11325,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11349,7 +11354,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13065,6 +13070,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13076,13 +13088,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13126,43 +13131,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13207,58 +13212,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13283,23 +13288,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13351,7 +13356,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13410,7 +13415,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13461,7 +13466,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13516,7 +13521,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13575,7 +13580,7 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13604,7 +13609,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13633,7 +13638,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13664,7 +13669,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13693,7 +13698,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13722,7 +13727,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13751,7 +13756,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15467,6 +15472,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15478,13 +15490,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15528,43 +15533,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15609,58 +15614,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15685,23 +15690,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15755,7 +15760,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15810,7 +15815,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15865,7 +15870,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15920,7 +15925,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15975,7 +15980,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16032,7 +16037,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16087,7 +16092,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16144,7 +16149,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16173,7 +16178,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16202,7 +16207,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16231,7 +16236,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17947,6 +17952,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17958,13 +17970,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18008,43 +18013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -18089,58 +18094,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -18165,23 +18170,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18231,7 +18236,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -18292,7 +18297,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -18347,7 +18352,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -18404,7 +18409,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -18459,7 +18464,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -18512,7 +18517,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18569,7 +18574,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18632,7 +18637,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18661,7 +18666,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18690,7 +18695,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18719,7 +18724,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20435,6 +20440,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20446,13 +20458,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20496,43 +20501,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20577,58 +20582,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20653,23 +20658,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20695,7 +20700,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20726,7 +20731,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20755,7 +20760,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20784,7 +20789,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20813,7 +20818,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20842,7 +20847,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20871,7 +20876,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20902,7 +20907,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20931,7 +20936,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20960,7 +20965,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20989,7 +20994,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22220,13 +22225,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -22238,6 +22236,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_AnhTuanBG.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Anh Thông giữ</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -941,30 +947,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +964,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,7 +1299,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1325,43 +1331,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1406,58 +1412,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1482,23 +1488,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1554,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1563,7 +1569,9 @@
       <c r="B7" s="61">
         <v>44696</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44810</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>67</v>
       </c>
@@ -1580,18 +1588,28 @@
         <v>145</v>
       </c>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="P7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1644,7 +1662,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1715,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +1768,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1807,7 +1825,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1836,7 +1854,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1867,7 +1885,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1914,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1943,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +1972,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2122,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2285,7 +2303,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2605,7 +2623,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3670,6 +3688,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3681,13 +3706,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3731,43 +3749,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3812,58 +3830,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3888,23 +3906,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,7 +3954,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3967,7 +3985,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3996,7 +4014,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4025,7 +4043,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4054,7 +4072,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4101,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4112,7 +4130,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4143,7 +4161,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4172,7 +4190,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4201,7 +4219,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4230,7 +4248,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5946,13 +5964,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5964,6 +5975,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6007,43 +6025,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6088,58 +6106,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6164,23 +6182,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6250,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6263,7 +6281,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6292,7 +6310,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6321,7 +6339,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6350,7 +6368,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6379,7 +6397,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6408,7 +6426,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6439,7 +6457,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6468,7 +6486,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6497,7 +6515,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6526,7 +6544,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8242,13 +8260,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8260,6 +8271,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8303,43 +8321,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8384,58 +8402,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8460,23 +8478,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8546,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8585,7 +8603,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8640,7 +8658,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8669,7 +8687,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8698,7 +8716,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8727,7 +8745,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8756,7 +8774,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8787,7 +8805,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8816,7 +8834,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8845,7 +8863,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8874,7 +8892,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10590,13 +10608,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10608,6 +10619,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10651,43 +10669,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10732,58 +10750,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10808,23 +10826,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10880,7 +10898,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10941,7 +10959,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11000,7 +11018,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11059,7 +11077,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11118,7 +11136,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11177,7 +11195,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11236,7 +11254,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11267,7 +11285,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11296,7 +11314,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11325,7 +11343,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11354,7 +11372,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13070,13 +13088,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13088,6 +13099,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13131,43 +13149,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13212,58 +13230,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -13288,23 +13306,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13356,7 +13374,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13415,7 +13433,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13466,7 +13484,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13521,7 +13539,7 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13580,7 +13598,7 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13609,7 +13627,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13638,7 +13656,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13669,7 +13687,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13698,7 +13716,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13727,7 +13745,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13756,7 +13774,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15472,13 +15490,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15490,6 +15501,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15533,43 +15551,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15614,58 +15632,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15690,23 +15708,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15760,7 +15778,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15815,7 +15833,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15870,7 +15888,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15925,7 +15943,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15980,7 +15998,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -16037,7 +16055,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -16092,7 +16110,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -16149,7 +16167,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -16178,7 +16196,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -16207,7 +16225,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -16236,7 +16254,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17952,13 +17970,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17970,6 +17981,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18013,43 +18031,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -18094,58 +18112,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -18170,23 +18188,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18236,7 +18254,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -18297,7 +18315,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -18352,7 +18370,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -18409,7 +18427,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -18464,7 +18482,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -18517,7 +18535,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18574,7 +18592,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18637,7 +18655,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18666,7 +18684,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18695,7 +18713,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18724,7 +18742,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20440,13 +20458,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20458,6 +20469,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20501,43 +20519,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -20582,58 +20600,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20658,23 +20676,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20700,7 +20718,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20731,7 +20749,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20760,7 +20778,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20789,7 +20807,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20818,7 +20836,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20847,7 +20865,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20876,7 +20894,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20907,7 +20925,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20936,7 +20954,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20965,7 +20983,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20994,7 +21012,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -22225,6 +22243,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -22236,13 +22261,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
